--- a/Source_data/Образование.xlsx
+++ b/Source_data/Образование.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\git\hoga\Source_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12435" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Инвестиции в образование</t>
   </si>
@@ -40,18 +45,6 @@
   </si>
   <si>
     <t>ГОД</t>
-  </si>
-  <si>
-    <t>Количество ВУЗ, ЕД</t>
-  </si>
-  <si>
-    <t>Количесво студентов ВУЗ, тыс</t>
-  </si>
-  <si>
-    <t>Принято студентов, тыс</t>
-  </si>
-  <si>
-    <t>Выпущено специальстов, тыс</t>
   </si>
   <si>
     <t>Количество докторантов, чел</t>
@@ -109,40 +102,43 @@
 в профессионально-технических учебных заведений ( количество учеников)</t>
   </si>
   <si>
-    <t>I−II   уроаня аккредитации</t>
-  </si>
-  <si>
-    <t>III−IV уровня аккредитации</t>
-  </si>
-  <si>
-    <t>I−II   уровня аккредитации</t>
-  </si>
-  <si>
-    <t>III−IV уровня аккредитации</t>
-  </si>
-  <si>
-    <t>I−II уровня аккредитации</t>
-  </si>
-  <si>
-    <t>III−IV  уровня аккредитации</t>
-  </si>
-  <si>
-    <t>III−IV   уроаня аккредитации</t>
-  </si>
-  <si>
     <t>Введено в  эксплуатацию
 общеобразовательных заведений, шт</t>
   </si>
   <si>
     <t>Подготовка кадров
 в профтехнических  заведениях ( количество заведений)</t>
+  </si>
+  <si>
+    <t>Количество ВУЗ, ЕД, I−II   уровня аккредитации</t>
+  </si>
+  <si>
+    <t>Количество ВУЗ, ЕД, III−IV уровня аккредитации</t>
+  </si>
+  <si>
+    <t>Количесво студентов ВУЗ, тыс, I−II   уровня аккредитации</t>
+  </si>
+  <si>
+    <t>Количесво студентов ВУЗ, тыс, III−IV уровня аккредитации</t>
+  </si>
+  <si>
+    <t>Принято студентов, тыс, I−II уровня аккредитации</t>
+  </si>
+  <si>
+    <t>Принято студентов, тыс, III−IV  уровня аккредитации</t>
+  </si>
+  <si>
+    <t>Выпущено специальстов, тыс, I−II   уроаня аккредитации</t>
+  </si>
+  <si>
+    <t>Выпущено специальстов, тыс, III−IV   уроаня аккредитации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,63 +186,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -260,24 +204,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +296,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,6 +331,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -565,153 +507,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="30" width="19.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:30" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7" t="s">
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="X1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
+      <c r="AB1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" ht="135.75" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="C2" s="4">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>244.7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>52.3</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4100</v>
+      </c>
+      <c r="K2" s="4">
+        <v>206</v>
+      </c>
+      <c r="L2" s="4">
+        <v>66</v>
+      </c>
+      <c r="M2" s="4">
+        <v>4100</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1219</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1013</v>
+      </c>
+      <c r="P2" s="4">
         <v>36</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="Q2" s="4">
+        <v>206</v>
+      </c>
+      <c r="R2" s="4">
+        <v>83</v>
+      </c>
+      <c r="S2" s="4">
+        <v>51</v>
+      </c>
+      <c r="T2" s="4">
+        <v>917</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>21379</v>
+      </c>
+      <c r="W2" s="4">
+        <v>223032</v>
+      </c>
+      <c r="X2" s="4">
+        <v>24540</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>19326.900000000001</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>901</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>240</v>
+      </c>
+      <c r="AB2" s="4">
         <v>27</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>29</v>
+      <c r="AC2" s="4">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>11167</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>33</v>
@@ -720,76 +714,76 @@
         <v>37</v>
       </c>
       <c r="D3" s="4">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="E3" s="4">
-        <v>244.7</v>
+        <v>216</v>
       </c>
       <c r="F3" s="4">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="G3" s="4">
-        <v>37.799999999999997</v>
+        <v>28.6</v>
       </c>
       <c r="H3" s="4">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I3" s="4">
-        <v>52.3</v>
+        <v>50.7</v>
       </c>
       <c r="J3" s="4">
-        <v>4100</v>
+        <v>3940</v>
       </c>
       <c r="K3" s="4">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L3" s="4">
         <v>66</v>
       </c>
       <c r="M3" s="4">
-        <v>4100</v>
+        <v>3940</v>
       </c>
       <c r="N3" s="4">
-        <v>1219</v>
+        <v>1130</v>
       </c>
       <c r="O3" s="4">
-        <v>1013</v>
+        <v>1049</v>
       </c>
       <c r="P3" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="4">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="R3" s="4">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S3" s="4">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="T3" s="4">
-        <v>917</v>
+        <v>888</v>
       </c>
       <c r="U3" s="4">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="V3" s="4">
-        <v>21379</v>
+        <v>10936</v>
       </c>
       <c r="W3" s="4">
-        <v>223032</v>
+        <v>224630</v>
       </c>
       <c r="X3" s="4">
-        <v>24540</v>
+        <v>24236</v>
       </c>
       <c r="Y3" s="4">
-        <v>19326.900000000001</v>
+        <v>43953.4</v>
       </c>
       <c r="Z3" s="4">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="AA3" s="4">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="AB3" s="4">
         <v>27</v>
@@ -798,12 +792,12 @@
         <v>54</v>
       </c>
       <c r="AD3" s="4">
-        <v>11167</v>
+        <v>10117</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>33</v>
@@ -812,76 +806,76 @@
         <v>37</v>
       </c>
       <c r="D4" s="4">
-        <v>22.3</v>
+        <v>21.5</v>
       </c>
       <c r="E4" s="4">
-        <v>216</v>
+        <v>200.8</v>
       </c>
       <c r="F4" s="4">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G4" s="4">
-        <v>28.6</v>
+        <v>34.1</v>
       </c>
       <c r="H4" s="4">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I4" s="4">
-        <v>50.7</v>
+        <v>53.8</v>
       </c>
       <c r="J4" s="4">
-        <v>3940</v>
+        <v>3837</v>
       </c>
       <c r="K4" s="4">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L4" s="4">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M4" s="4">
-        <v>3940</v>
+        <v>3837</v>
       </c>
       <c r="N4" s="4">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="O4" s="4">
-        <v>1049</v>
+        <v>1029</v>
       </c>
       <c r="P4" s="4">
         <v>38</v>
       </c>
       <c r="Q4" s="4">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="R4" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" s="4">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="T4" s="4">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="U4" s="4">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4">
-        <v>10936</v>
+        <v>18140</v>
       </c>
       <c r="W4" s="4">
-        <v>224630</v>
+        <v>220937</v>
       </c>
       <c r="X4" s="4">
-        <v>24236</v>
+        <v>23862</v>
       </c>
       <c r="Y4" s="4">
-        <v>43953.4</v>
+        <v>16417.599999999999</v>
       </c>
       <c r="Z4" s="4">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="AA4" s="4">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB4" s="4">
         <v>27</v>
@@ -890,12 +884,12 @@
         <v>54</v>
       </c>
       <c r="AD4" s="4">
-        <v>10117</v>
+        <v>8374</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>33</v>
@@ -904,168 +898,168 @@
         <v>37</v>
       </c>
       <c r="D5" s="4">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="E5" s="4">
-        <v>200.8</v>
+        <v>187.6</v>
       </c>
       <c r="F5" s="4">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="G5" s="4">
         <v>34.1</v>
       </c>
       <c r="H5" s="4">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="I5" s="4">
-        <v>53.8</v>
+        <v>50</v>
       </c>
       <c r="J5" s="4">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="K5" s="4">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L5" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="4">
-        <v>3837</v>
+        <v>3603</v>
       </c>
       <c r="N5" s="4">
-        <v>1132</v>
+        <v>1010</v>
       </c>
       <c r="O5" s="4">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="P5" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="4">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="R5" s="4">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="S5" s="4">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="T5" s="4">
-        <v>883</v>
+        <v>847</v>
       </c>
       <c r="U5" s="4">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="V5" s="4">
-        <v>18140</v>
+        <v>16961</v>
       </c>
       <c r="W5" s="4">
-        <v>220937</v>
+        <v>220011</v>
       </c>
       <c r="X5" s="4">
-        <v>23862</v>
+        <v>23538</v>
       </c>
       <c r="Y5" s="4">
-        <v>16417.599999999999</v>
+        <v>15551</v>
       </c>
       <c r="Z5" s="4">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="AA5" s="4">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AB5" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC5" s="4">
         <v>54</v>
       </c>
       <c r="AD5" s="4">
-        <v>8374</v>
+        <v>9214</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4">
-        <v>21.7</v>
+        <v>20.5</v>
       </c>
       <c r="E6" s="4">
-        <v>187.6</v>
+        <v>169.6</v>
       </c>
       <c r="F6" s="4">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="G6" s="4">
-        <v>34.1</v>
+        <v>30.6</v>
       </c>
       <c r="H6" s="4">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="I6" s="4">
-        <v>50</v>
+        <v>45.8</v>
       </c>
       <c r="J6" s="4">
-        <v>3835</v>
+        <v>3346</v>
       </c>
       <c r="K6" s="4">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="L6" s="4">
         <v>63</v>
       </c>
       <c r="M6" s="4">
-        <v>3603</v>
+        <v>3346</v>
       </c>
       <c r="N6" s="4">
-        <v>1010</v>
+        <v>917</v>
       </c>
       <c r="O6" s="4">
-        <v>994</v>
+        <v>931</v>
       </c>
       <c r="P6" s="4">
         <v>39</v>
       </c>
       <c r="Q6" s="4">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="R6" s="4">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="S6" s="4">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="T6" s="4">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="U6" s="4">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="V6" s="4">
-        <v>16961</v>
+        <v>15132</v>
       </c>
       <c r="W6" s="4">
-        <v>220011</v>
+        <v>288060</v>
       </c>
       <c r="X6" s="4">
-        <v>23538</v>
+        <v>23345</v>
       </c>
       <c r="Y6" s="4">
-        <v>15551</v>
+        <v>15756.6</v>
       </c>
       <c r="Z6" s="4">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="AA6" s="4">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AB6" s="4">
         <v>28</v>
@@ -1074,90 +1068,90 @@
         <v>54</v>
       </c>
       <c r="AD6" s="4">
-        <v>9214</v>
+        <v>8514</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>32</v>
       </c>
       <c r="C7" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4">
-        <v>20.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>169.6</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="F7" s="4">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="G7" s="4">
-        <v>30.6</v>
+        <v>26.5</v>
       </c>
       <c r="H7" s="4">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4">
-        <v>45.8</v>
+        <v>39.6</v>
       </c>
       <c r="J7" s="4">
-        <v>3346</v>
+        <v>3420</v>
       </c>
       <c r="K7" s="4">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L7" s="4">
         <v>63</v>
       </c>
       <c r="M7" s="4">
-        <v>3346</v>
+        <v>3420</v>
       </c>
       <c r="N7" s="4">
-        <v>917</v>
+        <v>1202</v>
       </c>
       <c r="O7" s="4">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="P7" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="4">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="R7" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S7" s="4">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="T7" s="4">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="U7" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V7" s="4">
-        <v>15132</v>
+        <v>20115</v>
       </c>
       <c r="W7" s="4">
-        <v>288060</v>
+        <v>229697</v>
       </c>
       <c r="X7" s="4">
-        <v>23345</v>
+        <v>22522</v>
       </c>
       <c r="Y7" s="4">
-        <v>15756.6</v>
+        <v>25709.1</v>
       </c>
       <c r="Z7" s="4">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="AA7" s="4">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AB7" s="4">
         <v>28</v>
@@ -1166,146 +1160,34 @@
         <v>54</v>
       </c>
       <c r="AD7" s="4">
-        <v>8514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E8" s="4">
-        <v>162.30000000000001</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="H8" s="4">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4">
-        <v>39.6</v>
-      </c>
-      <c r="J8" s="4">
-        <v>3420</v>
-      </c>
-      <c r="K8" s="4">
-        <v>225</v>
-      </c>
-      <c r="L8" s="4">
-        <v>63</v>
-      </c>
-      <c r="M8" s="4">
-        <v>3420</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1202</v>
-      </c>
-      <c r="O8" s="4">
-        <v>922</v>
-      </c>
-      <c r="P8" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>225</v>
-      </c>
-      <c r="R8" s="4">
-        <v>78</v>
-      </c>
-      <c r="S8" s="4">
-        <v>79</v>
-      </c>
-      <c r="T8" s="4">
-        <v>818</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <v>20115</v>
-      </c>
-      <c r="W8" s="4">
-        <v>229697</v>
-      </c>
-      <c r="X8" s="4">
-        <v>22522</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>25709.1</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>812</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>279</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>54</v>
-      </c>
-      <c r="AD8" s="4">
         <v>7669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="AD9" s="4">
-        <f>AVERAGE(AD3:AD8)</f>
-        <v>9175.8333333333339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="M11" s="4">
-        <f>(922*100)/1202</f>
-        <v>76.705490848585697</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Source_data/Образование.xlsx
+++ b/Source_data/Образование.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Инвестиции в образование</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Количество заведений, осуществляющих подготовку аспирантов</t>
   </si>
   <si>
-    <t>Количество аспирантов</t>
-  </si>
-  <si>
     <t>Принято в аспирантуру</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">Количество заведений, осуществляющие подготовку докторантов, ед </t>
-  </si>
-  <si>
-    <t>Количество докторантов</t>
   </si>
   <si>
     <t>Принято докторантов</t>
@@ -132,6 +126,87 @@
   </si>
   <si>
     <t>Выпущено специальстов, тыс, III−IV   уроаня аккредитации</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>student_univesity</t>
+  </si>
+  <si>
+    <t>in_student_university</t>
+  </si>
+  <si>
+    <t>out_student_university</t>
+  </si>
+  <si>
+    <t>phd_student</t>
+  </si>
+  <si>
+    <t>phd_university</t>
+  </si>
+  <si>
+    <t>in_phd_student</t>
+  </si>
+  <si>
+    <t>out_phd_student</t>
+  </si>
+  <si>
+    <t>dsc_university</t>
+  </si>
+  <si>
+    <t>in_dsc_students</t>
+  </si>
+  <si>
+    <t>out_dsc_students</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>in_school</t>
+  </si>
+  <si>
+    <t>out_student_school</t>
+  </si>
+  <si>
+    <t>student_school</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>investment_edu</t>
+  </si>
+  <si>
+    <t>day_school</t>
+  </si>
+  <si>
+    <t>student_per_school</t>
+  </si>
+  <si>
+    <t>teacher_per_school</t>
+  </si>
+  <si>
+    <t>student_college</t>
+  </si>
+  <si>
+    <t>in_student_college</t>
+  </si>
+  <si>
+    <t>out_student_college</t>
+  </si>
+  <si>
+    <t>tech_college</t>
+  </si>
+  <si>
+    <t>student_tech_college</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>dsc_student</t>
   </si>
 </sst>
 </file>
@@ -508,44 +583,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="30" width="19.140625" style="4" customWidth="1"/>
+    <col min="1" max="28" width="19.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>9</v>
@@ -572,46 +647,40 @@
         <v>20</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -649,61 +718,55 @@
         <v>66</v>
       </c>
       <c r="M2" s="4">
-        <v>4100</v>
+        <v>1219</v>
       </c>
       <c r="N2" s="4">
-        <v>1219</v>
+        <v>1013</v>
       </c>
       <c r="O2" s="4">
-        <v>1013</v>
+        <v>36</v>
       </c>
       <c r="P2" s="4">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="4">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="R2" s="4">
-        <v>83</v>
+        <v>917</v>
       </c>
       <c r="S2" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4">
-        <v>917</v>
+        <v>21379</v>
       </c>
       <c r="U2" s="4">
-        <v>0</v>
+        <v>223032</v>
       </c>
       <c r="V2" s="4">
-        <v>21379</v>
+        <v>24540</v>
       </c>
       <c r="W2" s="4">
-        <v>223032</v>
+        <v>19326.900000000001</v>
       </c>
       <c r="X2" s="4">
-        <v>24540</v>
+        <v>901</v>
       </c>
       <c r="Y2" s="4">
-        <v>19326.900000000001</v>
+        <v>240</v>
       </c>
       <c r="Z2" s="4">
-        <v>901</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="4">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="4">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="4">
         <v>11167</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -741,61 +804,55 @@
         <v>66</v>
       </c>
       <c r="M3" s="4">
-        <v>3940</v>
+        <v>1130</v>
       </c>
       <c r="N3" s="4">
-        <v>1130</v>
+        <v>1049</v>
       </c>
       <c r="O3" s="4">
-        <v>1049</v>
+        <v>38</v>
       </c>
       <c r="P3" s="4">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="4">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="R3" s="4">
-        <v>72</v>
+        <v>888</v>
       </c>
       <c r="S3" s="4">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="T3" s="4">
-        <v>888</v>
+        <v>10936</v>
       </c>
       <c r="U3" s="4">
-        <v>198</v>
+        <v>224630</v>
       </c>
       <c r="V3" s="4">
-        <v>10936</v>
+        <v>24236</v>
       </c>
       <c r="W3" s="4">
-        <v>224630</v>
+        <v>43953.4</v>
       </c>
       <c r="X3" s="4">
-        <v>24236</v>
+        <v>876</v>
       </c>
       <c r="Y3" s="4">
-        <v>43953.4</v>
+        <v>251</v>
       </c>
       <c r="Z3" s="4">
-        <v>876</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="4">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="AB3" s="4">
-        <v>27</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="4">
         <v>10117</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -833,61 +890,55 @@
         <v>64</v>
       </c>
       <c r="M4" s="4">
-        <v>3837</v>
+        <v>1132</v>
       </c>
       <c r="N4" s="4">
-        <v>1132</v>
+        <v>1029</v>
       </c>
       <c r="O4" s="4">
-        <v>1029</v>
+        <v>38</v>
       </c>
       <c r="P4" s="4">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="4">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="R4" s="4">
-        <v>73</v>
+        <v>883</v>
       </c>
       <c r="S4" s="4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4">
-        <v>883</v>
+        <v>18140</v>
       </c>
       <c r="U4" s="4">
-        <v>0</v>
+        <v>220937</v>
       </c>
       <c r="V4" s="4">
-        <v>18140</v>
+        <v>23862</v>
       </c>
       <c r="W4" s="4">
-        <v>220937</v>
+        <v>16417.599999999999</v>
       </c>
       <c r="X4" s="4">
-        <v>23862</v>
+        <v>872</v>
       </c>
       <c r="Y4" s="4">
-        <v>16417.599999999999</v>
+        <v>249</v>
       </c>
       <c r="Z4" s="4">
-        <v>872</v>
+        <v>27</v>
       </c>
       <c r="AA4" s="4">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="4">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="4">
         <v>8374</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -925,61 +976,55 @@
         <v>63</v>
       </c>
       <c r="M5" s="4">
-        <v>3603</v>
+        <v>1010</v>
       </c>
       <c r="N5" s="4">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="O5" s="4">
-        <v>994</v>
+        <v>39</v>
       </c>
       <c r="P5" s="4">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="4">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="R5" s="4">
-        <v>82</v>
+        <v>847</v>
       </c>
       <c r="S5" s="4">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="T5" s="4">
-        <v>847</v>
+        <v>16961</v>
       </c>
       <c r="U5" s="4">
-        <v>130</v>
+        <v>220011</v>
       </c>
       <c r="V5" s="4">
-        <v>16961</v>
+        <v>23538</v>
       </c>
       <c r="W5" s="4">
-        <v>220011</v>
+        <v>15551</v>
       </c>
       <c r="X5" s="4">
-        <v>23538</v>
+        <v>838</v>
       </c>
       <c r="Y5" s="4">
-        <v>15551</v>
+        <v>258</v>
       </c>
       <c r="Z5" s="4">
-        <v>838</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="4">
-        <v>258</v>
+        <v>54</v>
       </c>
       <c r="AB5" s="4">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>54</v>
-      </c>
-      <c r="AD5" s="4">
         <v>9214</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1017,61 +1062,55 @@
         <v>63</v>
       </c>
       <c r="M6" s="4">
-        <v>3346</v>
+        <v>917</v>
       </c>
       <c r="N6" s="4">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="O6" s="4">
-        <v>931</v>
+        <v>39</v>
       </c>
       <c r="P6" s="4">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="4">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="R6" s="4">
-        <v>76</v>
+        <v>837</v>
       </c>
       <c r="S6" s="4">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="T6" s="4">
-        <v>837</v>
+        <v>15132</v>
       </c>
       <c r="U6" s="4">
-        <v>20</v>
+        <v>288060</v>
       </c>
       <c r="V6" s="4">
-        <v>15132</v>
+        <v>23345</v>
       </c>
       <c r="W6" s="4">
-        <v>288060</v>
+        <v>15756.6</v>
       </c>
       <c r="X6" s="4">
-        <v>23345</v>
+        <v>830</v>
       </c>
       <c r="Y6" s="4">
-        <v>15756.6</v>
+        <v>271</v>
       </c>
       <c r="Z6" s="4">
-        <v>830</v>
+        <v>28</v>
       </c>
       <c r="AA6" s="4">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c r="AB6" s="4">
-        <v>28</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="4">
         <v>8514</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1109,58 +1148,135 @@
         <v>63</v>
       </c>
       <c r="M7" s="4">
-        <v>3420</v>
+        <v>1202</v>
       </c>
       <c r="N7" s="4">
-        <v>1202</v>
+        <v>922</v>
       </c>
       <c r="O7" s="4">
-        <v>922</v>
+        <v>40</v>
       </c>
       <c r="P7" s="4">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>79</v>
+      </c>
+      <c r="R7" s="4">
+        <v>818</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>20115</v>
+      </c>
+      <c r="U7" s="4">
+        <v>229697</v>
+      </c>
+      <c r="V7" s="4">
+        <v>22522</v>
+      </c>
+      <c r="W7" s="4">
+        <v>25709.1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>812</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>279</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>54</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>7669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="4">
-        <v>225</v>
-      </c>
-      <c r="R7" s="4">
-        <v>78</v>
-      </c>
-      <c r="S7" s="4">
-        <v>79</v>
-      </c>
-      <c r="T7" s="4">
-        <v>818</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4">
-        <v>20115</v>
-      </c>
-      <c r="W7" s="4">
-        <v>229697</v>
-      </c>
-      <c r="X7" s="4">
-        <v>22522</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>25709.1</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>812</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>279</v>
-      </c>
-      <c r="AB7" s="4">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>54</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>7669</v>
+      <c r="N8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
